--- a/etc/2021-11.xlsx
+++ b/etc/2021-11.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgeny/Projects/tsn/electricity/etc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD336F-3D19-2E4E-B28C-FB3A99D3E7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="323">
   <si>
     <t>Меркурий 230 ART (циф. вх.)</t>
   </si>
@@ -985,25 +994,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,##0.000"/>
-    <numFmt numFmtId="60" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -1097,48 +1095,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1149,24 +1125,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1368,7 +1405,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1387,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,9 +1675,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1657,7 +1700,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1676,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1702,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1728,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1754,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1780,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1806,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1832,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1858,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1884,7 +1927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1910,7 +1953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1923,9 +1966,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1939,7 +1988,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1958,7 +2007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1988,7 +2037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2014,7 +2063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2040,7 +2089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2066,7 +2115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2092,7 +2141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2118,7 +2167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2144,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2170,7 +2219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2196,7 +2245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2209,56 +2258,66 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3516" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.1719" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.3516" style="1" customWidth="1"/>
-    <col min="10" max="12" width="17.1719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="17.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5">
-        <v>16878.511</v>
+        <v>16878.510999999999</v>
       </c>
       <c r="I1" s="5">
-        <v>11844.666</v>
+        <v>11844.665999999999</v>
       </c>
       <c r="J1" s="5">
-        <v>23190.366</v>
+        <v>23190.366000000002</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -2266,16 +2325,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4"/>
@@ -2284,10 +2343,10 @@
         <v>2574.79</v>
       </c>
       <c r="I2" s="5">
-        <v>2237.321</v>
+        <v>2237.3209999999999</v>
       </c>
       <c r="J2" s="5">
-        <v>3438.792</v>
+        <v>3438.7919999999999</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2295,22 +2354,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5">
-        <v>3198.168</v>
+        <v>3198.1680000000001</v>
       </c>
       <c r="I3" s="5">
         <v>1706.93</v>
@@ -2324,16 +2383,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
@@ -2345,7 +2404,7 @@
         <v>1604.193</v>
       </c>
       <c r="J4" s="5">
-        <v>2285.655</v>
+        <v>2285.6550000000002</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -2353,25 +2412,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
-        <v>1109.938</v>
+        <v>1109.9380000000001</v>
       </c>
       <c r="I5" s="5">
-        <v>842.186</v>
+        <v>842.18600000000004</v>
       </c>
       <c r="J5" s="5">
         <v>1527.296</v>
@@ -2382,16 +2441,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4"/>
@@ -2400,10 +2459,10 @@
         <v>136.703</v>
       </c>
       <c r="I6" s="5">
-        <v>73.86799999999999</v>
+        <v>73.867999999999995</v>
       </c>
       <c r="J6" s="5">
-        <v>150.622</v>
+        <v>150.62200000000001</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -2411,28 +2470,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
-        <v>9618.944</v>
+        <v>9618.9439999999995</v>
       </c>
       <c r="I7" s="5">
         <v>7272.47</v>
       </c>
       <c r="J7" s="5">
-        <v>11912.459</v>
+        <v>11912.459000000001</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -2440,16 +2499,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s" s="3">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="4"/>
@@ -2458,10 +2517,10 @@
         <v>1937.74</v>
       </c>
       <c r="I8" s="5">
-        <v>1064.474</v>
+        <v>1064.4739999999999</v>
       </c>
       <c r="J8" s="5">
-        <v>2351.618</v>
+        <v>2351.6179999999999</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2469,16 +2528,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="4"/>
@@ -2487,10 +2546,10 @@
         <v>4946.451</v>
       </c>
       <c r="I9" s="5">
-        <v>5412.822</v>
+        <v>5412.8220000000001</v>
       </c>
       <c r="J9" s="5">
-        <v>5921.216</v>
+        <v>5921.2160000000003</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2498,25 +2557,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>3774.012</v>
+        <v>3774.0120000000002</v>
       </c>
       <c r="I10" s="5">
-        <v>2341.406</v>
+        <v>2341.4059999999999</v>
       </c>
       <c r="J10" s="5">
         <v>5101.2</v>
@@ -2527,16 +2586,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="4"/>
@@ -2545,10 +2604,10 @@
         <v>1552.329</v>
       </c>
       <c r="I11" s="5">
-        <v>1755.763</v>
+        <v>1755.7629999999999</v>
       </c>
       <c r="J11" s="5">
-        <v>2387.162</v>
+        <v>2387.1619999999998</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2556,25 +2615,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>4104.677</v>
+        <v>4104.6769999999997</v>
       </c>
       <c r="I12" s="5">
-        <v>3934.294</v>
+        <v>3934.2939999999999</v>
       </c>
       <c r="J12" s="5">
         <v>5964.674</v>
@@ -2585,16 +2644,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
@@ -2603,10 +2662,10 @@
         <v>5228.576</v>
       </c>
       <c r="I13" s="5">
-        <v>2852.536</v>
+        <v>2852.5360000000001</v>
       </c>
       <c r="J13" s="5">
-        <v>5681.954</v>
+        <v>5681.9539999999997</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2614,16 +2673,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="4"/>
@@ -2632,10 +2691,10 @@
         <v>2962.11</v>
       </c>
       <c r="I14" s="5">
-        <v>2948.844</v>
+        <v>2948.8440000000001</v>
       </c>
       <c r="J14" s="5">
-        <v>3341.728</v>
+        <v>3341.7280000000001</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2643,16 +2702,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="4"/>
@@ -2672,16 +2731,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="4"/>
@@ -2690,10 +2749,10 @@
         <v>4780.43</v>
       </c>
       <c r="I16" s="5">
-        <v>2733.618</v>
+        <v>2733.6179999999999</v>
       </c>
       <c r="J16" s="5">
-        <v>6244.028</v>
+        <v>6244.0280000000002</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2701,16 +2760,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="4"/>
@@ -2719,10 +2778,10 @@
         <v>2981.826</v>
       </c>
       <c r="I17" s="5">
-        <v>1695.063</v>
+        <v>1695.0630000000001</v>
       </c>
       <c r="J17" s="5">
-        <v>3685.372</v>
+        <v>3685.3719999999998</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2730,28 +2789,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5">
-        <v>5684.802</v>
+        <v>5684.8019999999997</v>
       </c>
       <c r="I18" s="5">
-        <v>4694.106</v>
+        <v>4694.1059999999998</v>
       </c>
       <c r="J18" s="5">
-        <v>7763.916</v>
+        <v>7763.9160000000002</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2759,16 +2818,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" t="s" s="3">
+      <c r="D19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="4"/>
@@ -2788,22 +2847,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" t="s" s="3">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>4306.148</v>
+        <v>4306.1480000000001</v>
       </c>
       <c r="I20" s="5">
         <v>3781.549</v>
@@ -2817,28 +2876,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
-        <v>2817.872</v>
+        <v>2817.8719999999998</v>
       </c>
       <c r="I21" s="5">
         <v>1865.492</v>
       </c>
       <c r="J21" s="5">
-        <v>4407.467</v>
+        <v>4407.4669999999996</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2846,28 +2905,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" t="s" s="3">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5">
-        <v>2508.778</v>
+        <v>2508.7779999999998</v>
       </c>
       <c r="I22" s="5">
         <v>1159.473</v>
       </c>
       <c r="J22" s="5">
-        <v>2743.504</v>
+        <v>2743.5039999999999</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2875,28 +2934,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" t="s" s="3">
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5">
-        <v>2937.762</v>
+        <v>2937.7620000000002</v>
       </c>
       <c r="I23" s="5">
-        <v>1517.074</v>
+        <v>1517.0740000000001</v>
       </c>
       <c r="J23" s="5">
-        <v>3722.014</v>
+        <v>3722.0140000000001</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2904,16 +2963,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" t="s" s="3">
+      <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="4"/>
@@ -2922,7 +2981,7 @@
         <v>2562.65</v>
       </c>
       <c r="I24" s="5">
-        <v>2198.744</v>
+        <v>2198.7440000000001</v>
       </c>
       <c r="J24" s="5">
         <v>2835.143</v>
@@ -2933,28 +2992,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5">
-        <v>15871.746</v>
+        <v>15871.745999999999</v>
       </c>
       <c r="I25" s="5">
         <v>12701.65</v>
       </c>
       <c r="J25" s="5">
-        <v>19904.778</v>
+        <v>19904.777999999998</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2962,16 +3021,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" t="s" s="3">
+      <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="4"/>
@@ -2980,7 +3039,7 @@
         <v>2495.096</v>
       </c>
       <c r="I26" s="5">
-        <v>2268.274</v>
+        <v>2268.2739999999999</v>
       </c>
       <c r="J26" s="5">
         <v>3856.32</v>
@@ -2991,16 +3050,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" t="s" s="3">
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4"/>
@@ -3009,10 +3068,10 @@
         <v>1836.788</v>
       </c>
       <c r="I27" s="5">
-        <v>1094.582</v>
+        <v>1094.5820000000001</v>
       </c>
       <c r="J27" s="5">
-        <v>2591.566</v>
+        <v>2591.5659999999998</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -3020,16 +3079,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" t="s" s="3">
+      <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" t="s" s="3">
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="4"/>
@@ -3038,10 +3097,10 @@
         <v>3372.268</v>
       </c>
       <c r="I28" s="5">
-        <v>1616.217</v>
+        <v>1616.2170000000001</v>
       </c>
       <c r="J28" s="5">
-        <v>3941.205</v>
+        <v>3941.2049999999999</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -3049,28 +3108,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" t="s" s="3">
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" t="s" s="3">
+      <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>2722.081</v>
+        <v>2722.0810000000001</v>
       </c>
       <c r="I29" s="5">
-        <v>2157.618</v>
+        <v>2157.6179999999999</v>
       </c>
       <c r="J29" s="5">
-        <v>3743.728</v>
+        <v>3743.7280000000001</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -3078,28 +3137,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>2315.966</v>
+        <v>2315.9659999999999</v>
       </c>
       <c r="I30" s="5">
         <v>1346.998</v>
       </c>
       <c r="J30" s="5">
-        <v>2966.242</v>
+        <v>2966.2420000000002</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -3107,25 +3166,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5">
-        <v>9346.011</v>
+        <v>9346.0110000000004</v>
       </c>
       <c r="I31" s="5">
-        <v>6061.497</v>
+        <v>6061.4970000000003</v>
       </c>
       <c r="J31" s="5">
         <v>13191.064</v>
@@ -3136,22 +3195,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" t="s" s="3">
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5">
-        <v>2399.353</v>
+        <v>2399.3530000000001</v>
       </c>
       <c r="I32" s="5">
         <v>1636.672</v>
@@ -3165,28 +3224,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" t="s" s="3">
+      <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" t="s" s="3">
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>2664.213</v>
+        <v>2664.2130000000002</v>
       </c>
       <c r="I33" s="5">
-        <v>2113.499</v>
+        <v>2113.4989999999998</v>
       </c>
       <c r="J33" s="5">
-        <v>3416.631</v>
+        <v>3416.6309999999999</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -3194,16 +3253,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" t="s" s="3">
+      <c r="D34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="4"/>
@@ -3223,28 +3282,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" t="s" s="3">
+      <c r="D35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="5">
-        <v>1405.919</v>
+        <v>1405.9190000000001</v>
       </c>
       <c r="I35" s="5">
-        <v>1787.929</v>
+        <v>1787.9290000000001</v>
       </c>
       <c r="J35" s="5">
-        <v>2429.506</v>
+        <v>2429.5059999999999</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -3252,28 +3311,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" t="s" s="3">
+      <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>1547.621</v>
+        <v>1547.6210000000001</v>
       </c>
       <c r="I36" s="5">
-        <v>1189.448</v>
+        <v>1189.4480000000001</v>
       </c>
       <c r="J36" s="5">
-        <v>2114.062</v>
+        <v>2114.0619999999999</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -3281,28 +3340,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" t="s" s="3">
+      <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" t="s" s="3">
+      <c r="D37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
-        <v>14021.156</v>
+        <v>14021.156000000001</v>
       </c>
       <c r="I37" s="5">
         <v>13833.294</v>
       </c>
       <c r="J37" s="5">
-        <v>21065.923</v>
+        <v>21065.922999999999</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -3310,25 +3369,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" t="s" s="3">
+      <c r="D38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5">
-        <v>2325.053</v>
+        <v>2325.0529999999999</v>
       </c>
       <c r="I38" s="5">
-        <v>2112.662</v>
+        <v>2112.6619999999998</v>
       </c>
       <c r="J38" s="5">
         <v>3509.97</v>
@@ -3339,16 +3398,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" t="s" s="3">
+      <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="4"/>
@@ -3357,10 +3416,10 @@
         <v>2266.192</v>
       </c>
       <c r="I39" s="5">
-        <v>1550.408</v>
+        <v>1550.4079999999999</v>
       </c>
       <c r="J39" s="5">
-        <v>2351.836</v>
+        <v>2351.8359999999998</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -3368,16 +3427,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" t="s" s="3">
+      <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" t="s" s="3">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F40" s="4"/>
@@ -3386,10 +3445,10 @@
         <v>4963.0805</v>
       </c>
       <c r="I40" s="5">
-        <v>2665.063</v>
+        <v>2665.0630000000001</v>
       </c>
       <c r="J40" s="5">
-        <v>5384.1775</v>
+        <v>5384.1774999999998</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -3397,16 +3456,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" t="s" s="3">
+      <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F41" s="4"/>
@@ -3415,10 +3474,10 @@
         <v>2464.913</v>
       </c>
       <c r="I41" s="5">
-        <v>1335.899</v>
+        <v>1335.8989999999999</v>
       </c>
       <c r="J41" s="5">
-        <v>3020.689</v>
+        <v>3020.6889999999999</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -3426,28 +3485,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" t="s" s="3">
+      <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="5">
-        <v>3973.495</v>
+        <v>3973.4949999999999</v>
       </c>
       <c r="I42" s="5">
         <v>1878.229</v>
       </c>
       <c r="J42" s="5">
-        <v>4481.977</v>
+        <v>4481.9769999999999</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -3455,16 +3514,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" t="s" s="3">
+      <c r="D43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="4"/>
@@ -3473,10 +3532,10 @@
         <v>1613.03</v>
       </c>
       <c r="I43" s="5">
-        <v>1936.871</v>
+        <v>1936.8710000000001</v>
       </c>
       <c r="J43" s="5">
-        <v>2473.624</v>
+        <v>2473.6239999999998</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -3484,25 +3543,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" t="s" s="3">
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>2143.176</v>
+        <v>2143.1759999999999</v>
       </c>
       <c r="I44" s="5">
-        <v>1566.524</v>
+        <v>1566.5239999999999</v>
       </c>
       <c r="J44" s="5">
         <v>2967.01</v>
@@ -3513,25 +3572,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" t="s" s="3">
+      <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>840.164</v>
+        <v>840.16399999999999</v>
       </c>
       <c r="I45" s="5">
-        <v>1475.639</v>
+        <v>1475.6389999999999</v>
       </c>
       <c r="J45" s="5">
         <v>1554.807</v>
@@ -3542,16 +3601,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" t="s" s="3">
+      <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F46" s="4"/>
@@ -3560,10 +3619,10 @@
         <v>4686.93</v>
       </c>
       <c r="I46" s="5">
-        <v>2276.756</v>
+        <v>2276.7559999999999</v>
       </c>
       <c r="J46" s="5">
-        <v>5372.574</v>
+        <v>5372.5739999999996</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -3571,16 +3630,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" t="s" s="3">
+      <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" t="s" s="3">
+      <c r="D47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F47" s="4"/>
@@ -3592,7 +3651,7 @@
         <v>1251.348</v>
       </c>
       <c r="J47" s="5">
-        <v>2546.224</v>
+        <v>2546.2240000000002</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -3600,16 +3659,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" t="s" s="3">
+      <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" t="s" s="3">
+      <c r="D48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F48" s="4"/>
@@ -3621,7 +3680,7 @@
         <v>3804.36</v>
       </c>
       <c r="J48" s="5">
-        <v>8556.523999999999</v>
+        <v>8556.5239999999994</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -3629,16 +3688,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" t="s" s="3">
+      <c r="B49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" t="s" s="3">
+      <c r="D49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="4"/>
@@ -3647,7 +3706,7 @@
         <v>10435.529</v>
       </c>
       <c r="I49" s="5">
-        <v>7405.371</v>
+        <v>7405.3710000000001</v>
       </c>
       <c r="J49" s="5">
         <v>13000.634</v>
@@ -3658,25 +3717,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" t="s" s="3">
+      <c r="D50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5">
-        <v>1079.936</v>
+        <v>1079.9359999999999</v>
       </c>
       <c r="I50" s="5">
-        <v>813.876</v>
+        <v>813.87599999999998</v>
       </c>
       <c r="J50" s="5">
         <v>1323.115</v>
@@ -3687,28 +3746,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" t="s" s="3">
+      <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" t="s" s="3">
+      <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
-        <v>2287.557</v>
+        <v>2287.5569999999998</v>
       </c>
       <c r="I51" s="5">
-        <v>1055.524</v>
+        <v>1055.5239999999999</v>
       </c>
       <c r="J51" s="5">
-        <v>2993.315</v>
+        <v>2993.3150000000001</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -3716,28 +3775,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" t="s" s="3">
+      <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" t="s" s="3">
+      <c r="D52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5">
-        <v>3972.074</v>
+        <v>3972.0740000000001</v>
       </c>
       <c r="I52" s="5">
-        <v>3884.698</v>
+        <v>3884.6979999999999</v>
       </c>
       <c r="J52" s="5">
-        <v>5093.452</v>
+        <v>5093.4520000000002</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -3745,25 +3804,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" t="s" s="3">
+      <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" t="s" s="3">
+      <c r="D53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="5">
-        <v>3505.382</v>
+        <v>3505.3820000000001</v>
       </c>
       <c r="I53" s="5">
-        <v>2646.032</v>
+        <v>2646.0320000000002</v>
       </c>
       <c r="J53" s="5">
         <v>4633.46</v>
@@ -3774,16 +3833,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" t="s" s="3">
+      <c r="B54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" t="s" s="3">
+      <c r="D54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F54" s="4"/>
@@ -3792,10 +3851,10 @@
         <v>3840.134</v>
       </c>
       <c r="I54" s="5">
-        <v>3089.234</v>
+        <v>3089.2339999999999</v>
       </c>
       <c r="J54" s="5">
-        <v>4527.037</v>
+        <v>4527.0370000000003</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -3803,28 +3862,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" t="s" s="3">
+      <c r="B55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" t="s" s="3">
+      <c r="D55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="5">
-        <v>6123.401</v>
+        <v>6123.4009999999998</v>
       </c>
       <c r="I55" s="5">
-        <v>5748.041</v>
+        <v>5748.0410000000002</v>
       </c>
       <c r="J55" s="5">
-        <v>8057.332</v>
+        <v>8057.3320000000003</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -3832,28 +3891,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" t="s" s="3">
+      <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" t="s" s="3">
+      <c r="D56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="5">
-        <v>3621.292</v>
+        <v>3621.2919999999999</v>
       </c>
       <c r="I56" s="5">
         <v>2709.058</v>
       </c>
       <c r="J56" s="5">
-        <v>4583.492</v>
+        <v>4583.4920000000002</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -3861,28 +3920,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" t="s" s="3">
+      <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" t="s" s="3">
+      <c r="D57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
-        <v>3182.437</v>
+        <v>3182.4369999999999</v>
       </c>
       <c r="I57" s="5">
-        <v>3488.405</v>
+        <v>3488.4050000000002</v>
       </c>
       <c r="J57" s="5">
-        <v>4014.937</v>
+        <v>4014.9369999999999</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -3890,28 +3949,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" t="s" s="3">
+      <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" t="s" s="3">
+      <c r="D58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>3158.396</v>
+        <v>3158.3960000000002</v>
       </c>
       <c r="I58" s="5">
         <v>2648.078</v>
       </c>
       <c r="J58" s="5">
-        <v>4532.388</v>
+        <v>4532.3879999999999</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -3919,25 +3978,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" t="s" s="3">
+      <c r="B59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" t="s" s="3">
+      <c r="D59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="5">
-        <v>1350.996</v>
+        <v>1350.9960000000001</v>
       </c>
       <c r="I59" s="5">
-        <v>1231.224</v>
+        <v>1231.2239999999999</v>
       </c>
       <c r="J59" s="5">
         <v>1729.16</v>
@@ -3948,16 +4007,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" t="s" s="3">
+      <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" t="s" s="3">
+      <c r="D60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="4"/>
@@ -3977,16 +4036,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" t="s" s="3">
+      <c r="B61" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" t="s" s="3">
+      <c r="D61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="4"/>
@@ -3995,10 +4054,10 @@
         <v>6976.808</v>
       </c>
       <c r="I61" s="5">
-        <v>3822.693</v>
+        <v>3822.6930000000002</v>
       </c>
       <c r="J61" s="5">
-        <v>8349.525</v>
+        <v>8349.5249999999996</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -4006,28 +4065,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" t="s" s="3">
+      <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" t="s" s="3">
+      <c r="D62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="5">
-        <v>2728.949</v>
+        <v>2728.9490000000001</v>
       </c>
       <c r="I62" s="5">
-        <v>1351.324</v>
+        <v>1351.3240000000001</v>
       </c>
       <c r="J62" s="5">
-        <v>3331.314</v>
+        <v>3331.3139999999999</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -4035,16 +4094,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" t="s" s="3">
+      <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" t="s" s="3">
+      <c r="D63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="4"/>
@@ -4053,10 +4112,10 @@
         <v>2635.45</v>
       </c>
       <c r="I63" s="5">
-        <v>1456.064</v>
+        <v>1456.0640000000001</v>
       </c>
       <c r="J63" s="5">
-        <v>3637.831</v>
+        <v>3637.8310000000001</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -4064,28 +4123,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" t="s" s="3">
+      <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" t="s" s="3">
+      <c r="D64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>4965.996</v>
+        <v>4965.9960000000001</v>
       </c>
       <c r="I64" s="5">
-        <v>3321.082</v>
+        <v>3321.0819999999999</v>
       </c>
       <c r="J64" s="5">
-        <v>5967.344</v>
+        <v>5967.3440000000001</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -4093,28 +4152,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" t="s" s="3">
+      <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" t="s" s="3">
+      <c r="D65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="5">
-        <v>2066.773</v>
+        <v>2066.7730000000001</v>
       </c>
       <c r="I65" s="5">
         <v>1420.335</v>
       </c>
       <c r="J65" s="5">
-        <v>2702.503</v>
+        <v>2702.5030000000002</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -4122,28 +4181,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" t="s" s="3">
+      <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" t="s" s="3">
+      <c r="D66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="5">
-        <v>53.5705</v>
+        <v>53.570500000000003</v>
       </c>
       <c r="I66" s="5">
         <v>58.305</v>
       </c>
       <c r="J66" s="5">
-        <v>73.621</v>
+        <v>73.620999999999995</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -4151,28 +4210,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" t="s" s="3">
+      <c r="B67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" t="s" s="3">
+      <c r="D67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="5">
-        <v>2867.084</v>
+        <v>2867.0839999999998</v>
       </c>
       <c r="I67" s="5">
-        <v>2622.574</v>
+        <v>2622.5740000000001</v>
       </c>
       <c r="J67" s="5">
-        <v>3765.836</v>
+        <v>3765.8359999999998</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -4180,28 +4239,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" t="s" s="3">
+      <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" t="s" s="3">
+      <c r="D68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="5">
-        <v>2771.544</v>
+        <v>2771.5439999999999</v>
       </c>
       <c r="I68" s="5">
-        <v>2284.786</v>
+        <v>2284.7860000000001</v>
       </c>
       <c r="J68" s="5">
-        <v>4094.743</v>
+        <v>4094.7429999999999</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -4209,25 +4268,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" t="s" s="3">
+      <c r="B69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" t="s" s="3">
+      <c r="D69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5">
-        <v>693.234</v>
+        <v>693.23400000000004</v>
       </c>
       <c r="I69" s="5">
-        <v>430.545</v>
+        <v>430.54500000000002</v>
       </c>
       <c r="J69" s="5">
         <v>957.97</v>
@@ -4238,28 +4297,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" t="s" s="3">
+      <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" t="s" s="3">
+      <c r="D70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>2116.026</v>
+        <v>2116.0259999999998</v>
       </c>
       <c r="I70" s="5">
         <v>2466.39</v>
       </c>
       <c r="J70" s="5">
-        <v>3119.948</v>
+        <v>3119.9479999999999</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -4267,16 +4326,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" t="s" s="3">
+      <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" t="s" s="3">
+      <c r="D71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F71" s="4"/>
@@ -4285,10 +4344,10 @@
         <v>1973.231</v>
       </c>
       <c r="I71" s="5">
-        <v>1374.592</v>
+        <v>1374.5920000000001</v>
       </c>
       <c r="J71" s="5">
-        <v>2681.488</v>
+        <v>2681.4879999999998</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -4296,16 +4355,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" t="s" s="3">
+      <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" t="s" s="3">
+      <c r="D72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F72" s="4"/>
@@ -4314,7 +4373,7 @@
         <v>1880.99</v>
       </c>
       <c r="I72" s="5">
-        <v>2256.514</v>
+        <v>2256.5140000000001</v>
       </c>
       <c r="J72" s="5">
         <v>2606.114</v>
@@ -4325,28 +4384,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" t="s" s="3">
+      <c r="B73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" t="s" s="3">
+      <c r="D73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="5">
-        <v>3410.811</v>
+        <v>3410.8110000000001</v>
       </c>
       <c r="I73" s="5">
         <v>2506.643</v>
       </c>
       <c r="J73" s="5">
-        <v>4472.685</v>
+        <v>4472.6850000000004</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -4354,25 +4413,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" t="s" s="3">
+      <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" t="s" s="3">
+      <c r="D74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>3948.249</v>
+        <v>3948.2489999999998</v>
       </c>
       <c r="I74" s="5">
-        <v>3276.542</v>
+        <v>3276.5419999999999</v>
       </c>
       <c r="J74" s="5">
         <v>4336.348</v>
@@ -4383,28 +4442,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" t="s" s="3">
+      <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" t="s" s="3">
+      <c r="D75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
-        <v>3318.324</v>
+        <v>3318.3240000000001</v>
       </c>
       <c r="I75" s="5">
         <v>2060.556</v>
       </c>
       <c r="J75" s="5">
-        <v>4062.764</v>
+        <v>4062.7640000000001</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -4412,16 +4471,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" t="s" s="3">
+      <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" t="s" s="3">
+      <c r="D76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F76" s="4"/>
@@ -4430,7 +4489,7 @@
         <v>2532.96</v>
       </c>
       <c r="I76" s="5">
-        <v>2042.024</v>
+        <v>2042.0239999999999</v>
       </c>
       <c r="J76" s="5">
         <v>3594.922</v>
@@ -4441,22 +4500,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" t="s" s="3">
+      <c r="B77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" t="s" s="3">
+      <c r="D77" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="5">
-        <v>9166.816999999999</v>
+        <v>9166.8169999999991</v>
       </c>
       <c r="I77" s="5">
         <v>10078.096</v>
@@ -4470,16 +4529,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" t="s" s="3">
+      <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" t="s" s="3">
+      <c r="D78" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F78" s="4"/>
@@ -4488,7 +4547,7 @@
         <v>2045.308</v>
       </c>
       <c r="I78" s="5">
-        <v>686.366</v>
+        <v>686.36599999999999</v>
       </c>
       <c r="J78" s="5">
         <v>0</v>
@@ -4499,16 +4558,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" t="s" s="3">
+      <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" t="s" s="3">
+      <c r="D79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F79" s="4"/>
@@ -4517,10 +4576,10 @@
         <v>2856.248</v>
       </c>
       <c r="I79" s="5">
-        <v>1822.102</v>
+        <v>1822.1020000000001</v>
       </c>
       <c r="J79" s="5">
-        <v>4098.98</v>
+        <v>4098.9799999999996</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -4528,25 +4587,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" t="s" s="3">
+      <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" t="s" s="3">
+      <c r="D80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="5">
-        <v>2700.534</v>
+        <v>2700.5340000000001</v>
       </c>
       <c r="I80" s="5">
-        <v>2595.651</v>
+        <v>2595.6509999999998</v>
       </c>
       <c r="J80" s="5">
         <v>3411.498</v>
@@ -4557,16 +4616,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" t="s" s="3">
+      <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" t="s" s="3">
+      <c r="D81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F81" s="4"/>
@@ -4586,28 +4645,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" t="s" s="3">
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" t="s" s="3">
+      <c r="D82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="5">
-        <v>6055.728</v>
+        <v>6055.7280000000001</v>
       </c>
       <c r="I82" s="5">
-        <v>3019.536</v>
+        <v>3019.5360000000001</v>
       </c>
       <c r="J82" s="5">
-        <v>8930.065000000001</v>
+        <v>8930.0650000000005</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -4615,28 +4674,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" t="s" s="3">
+      <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" t="s" s="3">
+      <c r="D83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="5">
-        <v>1945.458</v>
+        <v>1945.4580000000001</v>
       </c>
       <c r="I83" s="5">
         <v>1901.827</v>
       </c>
       <c r="J83" s="5">
-        <v>2895.051</v>
+        <v>2895.0509999999999</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -4644,16 +4703,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" t="s" s="3">
+      <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" t="s" s="3">
+      <c r="D84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F84" s="4"/>
@@ -4662,7 +4721,7 @@
         <v>1252.796</v>
       </c>
       <c r="I84" s="5">
-        <v>1146.062</v>
+        <v>1146.0619999999999</v>
       </c>
       <c r="J84" s="5">
         <v>1801.07</v>
@@ -4673,16 +4732,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" t="s" s="3">
+      <c r="B85" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" t="s" s="3">
+      <c r="D85" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" s="3" t="s">
         <v>170</v>
       </c>
       <c r="F85" s="4"/>
@@ -4702,28 +4761,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" t="s" s="3">
+      <c r="B86" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" t="s" s="3">
+      <c r="D86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5">
-        <v>1784.082</v>
+        <v>1784.0820000000001</v>
       </c>
       <c r="I86" s="5">
         <v>1268.924</v>
       </c>
       <c r="J86" s="5">
-        <v>2147.604</v>
+        <v>2147.6039999999998</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -4731,25 +4790,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" t="s" s="3">
+      <c r="B87" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" t="s" s="3">
+      <c r="D87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
-        <v>1593.776</v>
+        <v>1593.7760000000001</v>
       </c>
       <c r="I87" s="5">
-        <v>1033.051</v>
+        <v>1033.0509999999999</v>
       </c>
       <c r="J87" s="5">
         <v>1895.952</v>
@@ -4760,25 +4819,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" t="s" s="3">
+      <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="4"/>
-      <c r="D88" t="s" s="3">
+      <c r="D88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>1413.844</v>
+        <v>1413.8440000000001</v>
       </c>
       <c r="I88" s="5">
-        <v>1097.996</v>
+        <v>1097.9960000000001</v>
       </c>
       <c r="J88" s="5">
         <v>1855.212</v>
@@ -4789,28 +4848,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" t="s" s="3">
+      <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" t="s" s="3">
+      <c r="D89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="5">
-        <v>2366.624</v>
+        <v>2366.6239999999998</v>
       </c>
       <c r="I89" s="5">
-        <v>1687.666</v>
+        <v>1687.6659999999999</v>
       </c>
       <c r="J89" s="5">
-        <v>2933.592</v>
+        <v>2933.5920000000001</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -4818,16 +4877,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" t="s" s="3">
+      <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" t="s" s="3">
+      <c r="D90" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" s="3" t="s">
         <v>180</v>
       </c>
       <c r="F90" s="4"/>
@@ -4839,7 +4898,7 @@
         <v>2964.92</v>
       </c>
       <c r="J90" s="5">
-        <v>6259.488</v>
+        <v>6259.4880000000003</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -4847,28 +4906,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
-      <c r="B91" t="s" s="3">
+      <c r="B91" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" t="s" s="3">
+      <c r="D91" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
-        <v>2143.55</v>
+        <v>2143.5500000000002</v>
       </c>
       <c r="I91" s="5">
-        <v>2035.882</v>
+        <v>2035.8820000000001</v>
       </c>
       <c r="J91" s="5">
-        <v>2728.014</v>
+        <v>2728.0140000000001</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
@@ -4876,16 +4935,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" t="s" s="3">
+      <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" t="s" s="3">
+      <c r="D92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F92" s="4"/>
@@ -4897,7 +4956,7 @@
         <v>196.703</v>
       </c>
       <c r="J92" s="5">
-        <v>271.234</v>
+        <v>271.23399999999998</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -4905,16 +4964,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" t="s" s="3">
+      <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" t="s" s="3">
+      <c r="D93" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F93" s="4"/>
@@ -4926,7 +4985,7 @@
         <v>1838.818</v>
       </c>
       <c r="J93" s="5">
-        <v>2759.844</v>
+        <v>2759.8440000000001</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -4934,22 +4993,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" t="s" s="3">
+      <c r="B94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" t="s" s="3">
+      <c r="D94" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
-        <v>1579.349</v>
+        <v>1579.3489999999999</v>
       </c>
       <c r="I94" s="5">
         <v>1289.896</v>
@@ -4963,28 +5022,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" t="s" s="3">
+      <c r="B95" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" t="s" s="3">
+      <c r="D95" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="5">
-        <v>4370.702</v>
+        <v>4370.7020000000002</v>
       </c>
       <c r="I95" s="5">
-        <v>2877.316</v>
+        <v>2877.3159999999998</v>
       </c>
       <c r="J95" s="5">
-        <v>5386.651</v>
+        <v>5386.6509999999998</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -4992,28 +5051,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" t="s" s="3">
+      <c r="B96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" t="s" s="3">
+      <c r="D96" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="5">
-        <v>2216.947</v>
+        <v>2216.9470000000001</v>
       </c>
       <c r="I96" s="5">
-        <v>1588.219</v>
+        <v>1588.2190000000001</v>
       </c>
       <c r="J96" s="5">
-        <v>3675.012</v>
+        <v>3675.0120000000002</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -5021,16 +5080,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" t="s" s="3">
+      <c r="B97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" t="s" s="3">
+      <c r="D97" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F97" s="4"/>
@@ -5042,7 +5101,7 @@
         <v>1586.146</v>
       </c>
       <c r="J97" s="5">
-        <v>4246.106</v>
+        <v>4246.1059999999998</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -5050,16 +5109,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" t="s" s="3">
+      <c r="B98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" t="s" s="3">
+      <c r="D98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F98" s="4"/>
@@ -5071,7 +5130,7 @@
         <v>1588.45</v>
       </c>
       <c r="J98" s="5">
-        <v>4831.342</v>
+        <v>4831.3419999999996</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -5079,28 +5138,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-      <c r="B99" t="s" s="3">
+      <c r="B99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" t="s" s="3">
+      <c r="D99" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="5">
-        <v>1908.949</v>
+        <v>1908.9490000000001</v>
       </c>
       <c r="I99" s="5">
-        <v>1499.208</v>
+        <v>1499.2080000000001</v>
       </c>
       <c r="J99" s="5">
-        <v>2409.656</v>
+        <v>2409.6559999999999</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
@@ -5108,28 +5167,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" t="s" s="3">
+      <c r="B100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" t="s" s="3">
+      <c r="D100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="5">
-        <v>4186.275</v>
+        <v>4186.2749999999996</v>
       </c>
       <c r="I100" s="5">
         <v>1890.85</v>
       </c>
       <c r="J100" s="5">
-        <v>5457.033</v>
+        <v>5457.0330000000004</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
@@ -5137,16 +5196,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" t="s" s="3">
+      <c r="B101" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" t="s" s="3">
+      <c r="D101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F101" s="4"/>
@@ -5166,16 +5225,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" t="s" s="3">
+      <c r="B102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" t="s" s="3">
+      <c r="D102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F102" s="4"/>
@@ -5187,7 +5246,7 @@
         <v>1443.92</v>
       </c>
       <c r="J102" s="5">
-        <v>2355.859</v>
+        <v>2355.8589999999999</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
@@ -5195,28 +5254,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" t="s" s="3">
+      <c r="B103" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" t="s" s="3">
+      <c r="D103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>2811.132</v>
+        <v>2811.1320000000001</v>
       </c>
       <c r="I103" s="5">
-        <v>2089.05</v>
+        <v>2089.0500000000002</v>
       </c>
       <c r="J103" s="5">
-        <v>3578.178</v>
+        <v>3578.1779999999999</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -5224,28 +5283,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" t="s" s="3">
+      <c r="B104" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" t="s" s="3">
+      <c r="D104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>6320.963</v>
+        <v>6320.9629999999997</v>
       </c>
       <c r="I104" s="5">
-        <v>3043.879</v>
+        <v>3043.8789999999999</v>
       </c>
       <c r="J104" s="5">
-        <v>7102.995</v>
+        <v>7102.9949999999999</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -5253,16 +5312,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
-      <c r="B105" t="s" s="3">
+      <c r="B105" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" t="s" s="3">
+      <c r="D105" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" s="3" t="s">
         <v>210</v>
       </c>
       <c r="F105" s="8"/>
@@ -5271,10 +5330,10 @@
         <v>3151.357</v>
       </c>
       <c r="I105" s="10">
-        <v>2382.912</v>
+        <v>2382.9119999999998</v>
       </c>
       <c r="J105" s="10">
-        <v>4000.916</v>
+        <v>4000.9160000000002</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="12"/>
@@ -5282,28 +5341,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
-      <c r="B106" t="s" s="3">
+      <c r="B106" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="4"/>
-      <c r="D106" t="s" s="3">
+      <c r="D106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" s="3" t="s">
         <v>212</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>61.315</v>
+        <v>61.314999999999998</v>
       </c>
       <c r="I106" s="5">
         <v>28.27</v>
       </c>
       <c r="J106" s="5">
-        <v>79.979</v>
+        <v>79.978999999999999</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -5311,16 +5370,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" t="s" s="3">
+      <c r="B107" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" t="s" s="3">
+      <c r="D107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F107" s="4"/>
@@ -5329,10 +5388,10 @@
         <v>1812.76</v>
       </c>
       <c r="I107" s="5">
-        <v>2302.503</v>
+        <v>2302.5030000000002</v>
       </c>
       <c r="J107" s="5">
-        <v>2225.396</v>
+        <v>2225.3960000000002</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -5340,28 +5399,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" t="s" s="3">
+      <c r="B108" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" t="s" s="3">
+      <c r="D108" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" s="3" t="s">
         <v>216</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="5">
-        <v>304.918</v>
+        <v>304.91800000000001</v>
       </c>
       <c r="I108" s="5">
         <v>16.718</v>
       </c>
       <c r="J108" s="5">
-        <v>911.402</v>
+        <v>911.40200000000004</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -5369,28 +5428,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
-      <c r="B109" t="s" s="3">
+      <c r="B109" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="D109" t="s" s="3">
+      <c r="D109" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>3745.612</v>
+        <v>3745.6120000000001</v>
       </c>
       <c r="I109" s="5">
-        <v>2575.49</v>
+        <v>2575.4899999999998</v>
       </c>
       <c r="J109" s="5">
-        <v>4519.873</v>
+        <v>4519.8729999999996</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -5398,28 +5457,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
-      <c r="B110" t="s" s="3">
+      <c r="B110" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" t="s" s="3">
+      <c r="D110" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" s="3" t="s">
         <v>220</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>1942.716</v>
+        <v>1942.7159999999999</v>
       </c>
       <c r="I110" s="5">
-        <v>1963.369</v>
+        <v>1963.3689999999999</v>
       </c>
       <c r="J110" s="5">
-        <v>2664.679</v>
+        <v>2664.6790000000001</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -5427,16 +5486,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" t="s" s="3">
+      <c r="B111" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" t="s" s="3">
+      <c r="D111" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F111" s="4"/>
@@ -5445,10 +5504,10 @@
         <v>2185.473</v>
       </c>
       <c r="I111" s="5">
-        <v>2700.068</v>
+        <v>2700.0680000000002</v>
       </c>
       <c r="J111" s="5">
-        <v>4511.756</v>
+        <v>4511.7560000000003</v>
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -5456,28 +5515,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" t="s" s="3">
+      <c r="B112" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" t="s" s="3">
+      <c r="D112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" s="3" t="s">
         <v>224</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
-        <v>5973.882</v>
+        <v>5973.8819999999996</v>
       </c>
       <c r="I112" s="5">
-        <v>3216.686</v>
+        <v>3216.6860000000001</v>
       </c>
       <c r="J112" s="5">
-        <v>7571.656</v>
+        <v>7571.6559999999999</v>
       </c>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
@@ -5485,28 +5544,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
-      <c r="B113" t="s" s="3">
+      <c r="B113" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" t="s" s="3">
+      <c r="D113" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" s="3" t="s">
         <v>226</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>4660.688</v>
+        <v>4660.6880000000001</v>
       </c>
       <c r="I113" s="5">
-        <v>4286.793</v>
+        <v>4286.7929999999997</v>
       </c>
       <c r="J113" s="5">
-        <v>5841.078</v>
+        <v>5841.0780000000004</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
@@ -5514,28 +5573,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
-      <c r="B114" t="s" s="3">
+      <c r="B114" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" t="s" s="3">
+      <c r="D114" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="5">
-        <v>6420.214</v>
+        <v>6420.2139999999999</v>
       </c>
       <c r="I114" s="5">
-        <v>3230.656</v>
+        <v>3230.6559999999999</v>
       </c>
       <c r="J114" s="5">
-        <v>9162.880999999999</v>
+        <v>9162.8809999999994</v>
       </c>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
@@ -5543,28 +5602,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
-      <c r="B115" t="s" s="3">
+      <c r="B115" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" t="s" s="3">
+      <c r="D115" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" s="3" t="s">
         <v>230</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="5">
-        <v>5103.278</v>
+        <v>5103.2780000000002</v>
       </c>
       <c r="I115" s="5">
         <v>3775.56</v>
       </c>
       <c r="J115" s="5">
-        <v>6765.626</v>
+        <v>6765.6260000000002</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -5572,28 +5631,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
-      <c r="B116" t="s" s="3">
+      <c r="B116" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" t="s" s="3">
+      <c r="D116" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="5">
-        <v>2506.852</v>
+        <v>2506.8519999999999</v>
       </c>
       <c r="I116" s="5">
-        <v>2313.486</v>
+        <v>2313.4859999999999</v>
       </c>
       <c r="J116" s="5">
-        <v>3417.141</v>
+        <v>3417.1410000000001</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
@@ -5601,16 +5660,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
-      <c r="B117" t="s" s="3">
+      <c r="B117" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" t="s" s="3">
+      <c r="D117" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F117" s="4"/>
@@ -5619,10 +5678,10 @@
         <v>4626.09</v>
       </c>
       <c r="I117" s="5">
-        <v>3929.104</v>
+        <v>3929.1039999999998</v>
       </c>
       <c r="J117" s="5">
-        <v>7748.891</v>
+        <v>7748.8909999999996</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -5630,16 +5689,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
-      <c r="B118" t="s" s="3">
+      <c r="B118" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" t="s" s="3">
+      <c r="D118" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F118" s="4"/>
@@ -5659,28 +5718,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
-      <c r="B119" t="s" s="3">
+      <c r="B119" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="4"/>
-      <c r="D119" t="s" s="3">
+      <c r="D119" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="5">
-        <v>2900.258</v>
+        <v>2900.2579999999998</v>
       </c>
       <c r="I119" s="5">
         <v>1566.807</v>
       </c>
       <c r="J119" s="5">
-        <v>2833.577</v>
+        <v>2833.5770000000002</v>
       </c>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
@@ -5688,28 +5747,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
-      <c r="B120" t="s" s="3">
+      <c r="B120" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" t="s" s="3">
+      <c r="D120" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" s="3" t="s">
         <v>240</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>4364.48</v>
+        <v>4364.4799999999996</v>
       </c>
       <c r="I120" s="5">
-        <v>3357.802</v>
+        <v>3357.8020000000001</v>
       </c>
       <c r="J120" s="5">
-        <v>6054.854</v>
+        <v>6054.8540000000003</v>
       </c>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
@@ -5717,25 +5776,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
-      <c r="B121" t="s" s="3">
+      <c r="B121" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="D121" t="s" s="3">
+      <c r="D121" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" s="3" t="s">
         <v>242</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="5">
-        <v>3760.638</v>
+        <v>3760.6379999999999</v>
       </c>
       <c r="I121" s="5">
-        <v>2136.072</v>
+        <v>2136.0720000000001</v>
       </c>
       <c r="J121" s="5">
         <v>6055.2</v>
@@ -5746,28 +5805,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
-      <c r="B122" t="s" s="3">
+      <c r="B122" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="4"/>
-      <c r="D122" t="s" s="3">
+      <c r="D122" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>2509.832</v>
+        <v>2509.8319999999999</v>
       </c>
       <c r="I122" s="5">
         <v>1482.463</v>
       </c>
       <c r="J122" s="5">
-        <v>2815.562</v>
+        <v>2815.5619999999999</v>
       </c>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
@@ -5775,28 +5834,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
-      <c r="B123" t="s" s="3">
+      <c r="B123" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" t="s" s="3">
+      <c r="D123" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" s="3" t="s">
         <v>246</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
-        <v>3809.327</v>
+        <v>3809.3270000000002</v>
       </c>
       <c r="I123" s="5">
-        <v>3595.626</v>
+        <v>3595.6260000000002</v>
       </c>
       <c r="J123" s="5">
-        <v>6490.914</v>
+        <v>6490.9139999999998</v>
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -5804,16 +5863,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
-      <c r="B124" t="s" s="3">
+      <c r="B124" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" t="s" s="3">
+      <c r="D124" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F124" s="4"/>
@@ -5822,10 +5881,10 @@
         <v>2274.056</v>
       </c>
       <c r="I124" s="5">
-        <v>1685.594</v>
+        <v>1685.5940000000001</v>
       </c>
       <c r="J124" s="5">
-        <v>3048.987</v>
+        <v>3048.9870000000001</v>
       </c>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -5833,28 +5892,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
-      <c r="B125" t="s" s="3">
+      <c r="B125" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="4"/>
-      <c r="D125" t="s" s="3">
+      <c r="D125" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>4219.041</v>
+        <v>4219.0410000000002</v>
       </c>
       <c r="I125" s="5">
-        <v>3236.894</v>
+        <v>3236.8939999999998</v>
       </c>
       <c r="J125" s="5">
-        <v>5174.522</v>
+        <v>5174.5219999999999</v>
       </c>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -5862,16 +5921,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
-      <c r="B126" t="s" s="3">
+      <c r="B126" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" t="s" s="3">
+      <c r="D126" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F126" s="4"/>
@@ -5880,7 +5939,7 @@
         <v>11050.984</v>
       </c>
       <c r="I126" s="5">
-        <v>7426.738</v>
+        <v>7426.7380000000003</v>
       </c>
       <c r="J126" s="5">
         <v>14607.035</v>
@@ -5891,28 +5950,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
-      <c r="B127" t="s" s="3">
+      <c r="B127" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" t="s" s="3">
+      <c r="D127" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" s="3" t="s">
         <v>254</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="5">
-        <v>18742.812</v>
+        <v>18742.812000000002</v>
       </c>
       <c r="I127" s="5">
-        <v>17905.846</v>
+        <v>17905.846000000001</v>
       </c>
       <c r="J127" s="5">
-        <v>25415.836</v>
+        <v>25415.835999999999</v>
       </c>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -5920,25 +5979,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
-      <c r="B128" t="s" s="3">
+      <c r="B128" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" t="s" s="3">
+      <c r="D128" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" s="3" t="s">
         <v>256</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="5">
-        <v>4388.256</v>
+        <v>4388.2560000000003</v>
       </c>
       <c r="I128" s="5">
-        <v>4022.956</v>
+        <v>4022.9560000000001</v>
       </c>
       <c r="J128" s="5">
         <v>6028.18</v>
@@ -5949,16 +6008,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
-      <c r="B129" t="s" s="3">
+      <c r="B129" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="4"/>
-      <c r="D129" t="s" s="3">
+      <c r="D129" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F129" s="4"/>
@@ -5970,7 +6029,7 @@
         <v>2010.2</v>
       </c>
       <c r="J129" s="5">
-        <v>3136.794</v>
+        <v>3136.7939999999999</v>
       </c>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
@@ -5978,28 +6037,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
-      <c r="B130" t="s" s="3">
+      <c r="B130" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="4"/>
-      <c r="D130" t="s" s="3">
+      <c r="D130" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" s="3" t="s">
         <v>260</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>4184.632</v>
+        <v>4184.6319999999996</v>
       </c>
       <c r="I130" s="5">
-        <v>3334.276</v>
+        <v>3334.2759999999998</v>
       </c>
       <c r="J130" s="5">
-        <v>5605.423</v>
+        <v>5605.4229999999998</v>
       </c>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
@@ -6007,28 +6066,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
-      <c r="B131" t="s" s="3">
+      <c r="B131" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="4"/>
-      <c r="D131" t="s" s="3">
+      <c r="D131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" s="3" t="s">
         <v>262</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="5">
-        <v>3641.184</v>
+        <v>3641.1840000000002</v>
       </c>
       <c r="I131" s="5">
-        <v>2695.708</v>
+        <v>2695.7080000000001</v>
       </c>
       <c r="J131" s="5">
-        <v>4395.953</v>
+        <v>4395.9530000000004</v>
       </c>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
@@ -6036,28 +6095,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
-      <c r="B132" t="s" s="3">
+      <c r="B132" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C132" s="4"/>
-      <c r="D132" t="s" s="3">
+      <c r="D132" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="5">
-        <v>5464.827</v>
+        <v>5464.8270000000002</v>
       </c>
       <c r="I132" s="5">
         <v>4171.375</v>
       </c>
       <c r="J132" s="5">
-        <v>6379.956</v>
+        <v>6379.9560000000001</v>
       </c>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
@@ -6065,16 +6124,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
-      <c r="B133" t="s" s="3">
+      <c r="B133" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="4"/>
-      <c r="D133" t="s" s="3">
+      <c r="D133" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F133" s="4"/>
@@ -6086,7 +6145,7 @@
         <v>2046.886</v>
       </c>
       <c r="J133" s="5">
-        <v>6367.734</v>
+        <v>6367.7340000000004</v>
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
@@ -6094,16 +6153,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
-      <c r="B134" t="s" s="3">
+      <c r="B134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" t="s" s="3">
+      <c r="D134" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" s="3" t="s">
         <v>268</v>
       </c>
       <c r="F134" s="4"/>
@@ -6112,7 +6171,7 @@
         <v>2255.527</v>
       </c>
       <c r="I134" s="5">
-        <v>2413.168</v>
+        <v>2413.1680000000001</v>
       </c>
       <c r="J134" s="5">
         <v>3620.46</v>
@@ -6123,28 +6182,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
-      <c r="B135" t="s" s="3">
+      <c r="B135" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="4"/>
-      <c r="D135" t="s" s="3">
+      <c r="D135" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" s="3" t="s">
         <v>270</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>1941.426</v>
+        <v>1941.4259999999999</v>
       </c>
       <c r="I135" s="5">
-        <v>1424.898</v>
+        <v>1424.8979999999999</v>
       </c>
       <c r="J135" s="5">
-        <v>2044.246</v>
+        <v>2044.2460000000001</v>
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
@@ -6152,28 +6211,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
-      <c r="B136" t="s" s="3">
+      <c r="B136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" t="s" s="3">
+      <c r="D136" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" s="3" t="s">
         <v>272</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="5">
-        <v>2949.228</v>
+        <v>2949.2280000000001</v>
       </c>
       <c r="I136" s="5">
-        <v>2459.416</v>
+        <v>2459.4160000000002</v>
       </c>
       <c r="J136" s="5">
-        <v>4044.562</v>
+        <v>4044.5619999999999</v>
       </c>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
@@ -6181,25 +6240,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
-      <c r="B137" t="s" s="3">
+      <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C137" s="4"/>
-      <c r="D137" t="s" s="3">
+      <c r="D137" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" s="3" t="s">
         <v>274</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="5">
-        <v>2774.466</v>
+        <v>2774.4659999999999</v>
       </c>
       <c r="I137" s="5">
-        <v>3372.084</v>
+        <v>3372.0839999999998</v>
       </c>
       <c r="J137" s="5">
         <v>3337.98</v>
@@ -6210,28 +6269,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
-      <c r="B138" t="s" s="3">
+      <c r="B138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="4"/>
-      <c r="D138" t="s" s="3">
+      <c r="D138" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" s="3" t="s">
         <v>276</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>3112.633</v>
+        <v>3112.6329999999998</v>
       </c>
       <c r="I138" s="5">
         <v>2067.6095</v>
       </c>
       <c r="J138" s="5">
-        <v>4387.693</v>
+        <v>4387.6930000000002</v>
       </c>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
@@ -6239,28 +6298,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
-      <c r="B139" t="s" s="3">
+      <c r="B139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" t="s" s="3">
+      <c r="D139" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" s="3" t="s">
         <v>278</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>5742.153</v>
+        <v>5742.1530000000002</v>
       </c>
       <c r="I139" s="5">
         <v>3023.433</v>
       </c>
       <c r="J139" s="5">
-        <v>6884.648</v>
+        <v>6884.6480000000001</v>
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
@@ -6268,16 +6327,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
-      <c r="B140" t="s" s="3">
+      <c r="B140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C140" s="4"/>
-      <c r="D140" t="s" s="3">
+      <c r="D140" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" s="3" t="s">
         <v>280</v>
       </c>
       <c r="F140" s="4"/>
@@ -6297,16 +6356,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
-      <c r="B141" t="s" s="3">
+      <c r="B141" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" t="s" s="3">
+      <c r="D141" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" s="3" t="s">
         <v>282</v>
       </c>
       <c r="F141" s="4"/>
@@ -6318,7 +6377,7 @@
         <v>2350.431</v>
       </c>
       <c r="J141" s="5">
-        <v>3606.954</v>
+        <v>3606.9540000000002</v>
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
@@ -6326,28 +6385,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
-      <c r="B142" t="s" s="3">
+      <c r="B142" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="4"/>
-      <c r="D142" t="s" s="3">
+      <c r="D142" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" s="3" t="s">
         <v>284</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
-        <v>5562.946</v>
+        <v>5562.9459999999999</v>
       </c>
       <c r="I142" s="5">
-        <v>6221.332</v>
+        <v>6221.3320000000003</v>
       </c>
       <c r="J142" s="5">
-        <v>7742.108</v>
+        <v>7742.1080000000002</v>
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
@@ -6355,28 +6414,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
-      <c r="B143" t="s" s="3">
+      <c r="B143" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="4"/>
-      <c r="D143" t="s" s="3">
+      <c r="D143" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" s="3" t="s">
         <v>286</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="5">
-        <v>2643.554</v>
+        <v>2643.5540000000001</v>
       </c>
       <c r="I143" s="5">
-        <v>1922.014</v>
+        <v>1922.0139999999999</v>
       </c>
       <c r="J143" s="5">
-        <v>3564.988</v>
+        <v>3564.9879999999998</v>
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
@@ -6384,25 +6443,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
-      <c r="B144" t="s" s="3">
+      <c r="B144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" t="s" s="3">
+      <c r="D144" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" s="3" t="s">
         <v>288</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="5">
-        <v>4502.544</v>
+        <v>4502.5439999999999</v>
       </c>
       <c r="I144" s="5">
-        <v>3276.988</v>
+        <v>3276.9879999999998</v>
       </c>
       <c r="J144" s="5">
         <v>5173.732</v>
@@ -6413,28 +6472,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
-      <c r="B145" t="s" s="3">
+      <c r="B145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="4"/>
-      <c r="D145" t="s" s="3">
+      <c r="D145" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" s="3" t="s">
         <v>290</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="5">
-        <v>4196.128</v>
+        <v>4196.1279999999997</v>
       </c>
       <c r="I145" s="5">
-        <v>3323.157</v>
+        <v>3323.1570000000002</v>
       </c>
       <c r="J145" s="5">
-        <v>5381.004</v>
+        <v>5381.0039999999999</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
@@ -6442,25 +6501,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
-      <c r="B146" t="s" s="3">
+      <c r="B146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" t="s" s="3">
+      <c r="D146" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="5">
-        <v>4810.1</v>
+        <v>4810.1000000000004</v>
       </c>
       <c r="I146" s="5">
-        <v>4098.175</v>
+        <v>4098.1750000000002</v>
       </c>
       <c r="J146" s="5">
         <v>6202.64</v>
@@ -6471,28 +6530,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
-      <c r="B147" t="s" s="3">
+      <c r="B147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="4"/>
-      <c r="D147" t="s" s="3">
+      <c r="D147" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" s="3" t="s">
         <v>294</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>4315.478</v>
+        <v>4315.4780000000001</v>
       </c>
       <c r="I147" s="5">
-        <v>4479.739</v>
+        <v>4479.7389999999996</v>
       </c>
       <c r="J147" s="5">
-        <v>5475.025</v>
+        <v>5475.0249999999996</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -6500,22 +6559,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
-      <c r="B148" t="s" s="3">
+      <c r="B148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" t="s" s="3">
+      <c r="D148" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" s="3" t="s">
         <v>296</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="5">
-        <v>85269.299</v>
+        <v>85269.298999999999</v>
       </c>
       <c r="I148" s="5">
         <v>101102.166</v>
@@ -6529,25 +6588,25 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
-      <c r="B149" t="s" s="3">
+      <c r="B149" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="4"/>
-      <c r="D149" t="s" s="3">
+      <c r="D149" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" s="3" t="s">
         <v>298</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="5">
-        <v>87503.363</v>
+        <v>87503.362999999998</v>
       </c>
       <c r="I149" s="5">
-        <v>3.087</v>
+        <v>3.0870000000000002</v>
       </c>
       <c r="J149" s="5">
         <v>0</v>
@@ -6558,22 +6617,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
-      <c r="B150" t="s" s="3">
+      <c r="B150" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="4"/>
-      <c r="D150" t="s" s="3">
+      <c r="D150" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" s="3" t="s">
         <v>300</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="5">
-        <v>46068.938</v>
+        <v>46068.938000000002</v>
       </c>
       <c r="I150" s="5">
         <v>2.081</v>
@@ -6587,22 +6646,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
-      <c r="B151" t="s" s="3">
+      <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="4"/>
-      <c r="D151" t="s" s="3">
+      <c r="D151" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" s="3" t="s">
         <v>302</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="5">
-        <v>6652.894</v>
+        <v>6652.8940000000002</v>
       </c>
       <c r="I151" s="5">
         <v>0</v>
@@ -6616,16 +6675,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
-      <c r="B152" t="s" s="3">
+      <c r="B152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" t="s" s="3">
+      <c r="D152" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" s="3" t="s">
         <v>304</v>
       </c>
       <c r="F152" s="4"/>
@@ -6634,7 +6693,7 @@
         <v>12280.016</v>
       </c>
       <c r="I152" s="5">
-        <v>2.026</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="J152" s="5">
         <v>0</v>
@@ -6645,22 +6704,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
-      <c r="B153" t="s" s="3">
+      <c r="B153" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="4"/>
-      <c r="D153" t="s" s="3">
+      <c r="D153" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" s="3" t="s">
         <v>306</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="5">
-        <v>39186.172</v>
+        <v>39186.171999999999</v>
       </c>
       <c r="I153" s="5">
         <v>0</v>
@@ -6674,16 +6733,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
-      <c r="B154" t="s" s="3">
+      <c r="B154" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C154" s="4"/>
-      <c r="D154" t="s" s="3">
+      <c r="D154" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" s="3" t="s">
         <v>308</v>
       </c>
       <c r="F154" s="4"/>
@@ -6703,22 +6762,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
-      <c r="B155" t="s" s="3">
+      <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="4"/>
-      <c r="D155" t="s" s="3">
+      <c r="D155" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" s="3" t="s">
         <v>310</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="5">
-        <v>16934.628</v>
+        <v>16934.628000000001</v>
       </c>
       <c r="I155" s="5">
         <v>2.919</v>
@@ -6732,22 +6791,22 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
-      <c r="B156" t="s" s="3">
+      <c r="B156" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="4"/>
-      <c r="D156" t="s" s="3">
+      <c r="D156" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" s="3" t="s">
         <v>312</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="5">
-        <v>29929.666</v>
+        <v>29929.666000000001</v>
       </c>
       <c r="I156" s="5">
         <v>2.915</v>
@@ -6761,28 +6820,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
-      <c r="B157" t="s" s="3">
+      <c r="B157" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="4"/>
-      <c r="D157" t="s" s="3">
+      <c r="D157" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" s="3" t="s">
         <v>314</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>2836.007</v>
+        <v>2836.0070000000001</v>
       </c>
       <c r="I157" s="5">
-        <v>3279.646</v>
+        <v>3279.6460000000002</v>
       </c>
       <c r="J157" s="5">
-        <v>3612.406</v>
+        <v>3612.4059999999999</v>
       </c>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
@@ -6790,16 +6849,16 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
-      <c r="B158" t="s" s="3">
+      <c r="B158" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" t="s" s="3">
+      <c r="D158" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" s="3" t="s">
         <v>316</v>
       </c>
       <c r="F158" s="4"/>
@@ -6811,7 +6870,7 @@
         <v>1742.65</v>
       </c>
       <c r="J158" s="5">
-        <v>2143.102</v>
+        <v>2143.1019999999999</v>
       </c>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
@@ -6819,28 +6878,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
-      <c r="B159" t="s" s="3">
+      <c r="B159" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="4"/>
-      <c r="D159" t="s" s="3">
+      <c r="D159" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" s="3" t="s">
         <v>318</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="5">
-        <v>3313.724</v>
+        <v>3313.7240000000002</v>
       </c>
       <c r="I159" s="5">
-        <v>3490.414</v>
+        <v>3490.4140000000002</v>
       </c>
       <c r="J159" s="5">
-        <v>4256.282</v>
+        <v>4256.2820000000002</v>
       </c>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
@@ -6848,28 +6907,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
-      <c r="B160" t="s" s="3">
+      <c r="B160" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" t="s" s="3">
+      <c r="D160" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="5">
-        <v>2810.094</v>
+        <v>2810.0940000000001</v>
       </c>
       <c r="I160" s="5">
         <v>3231.01</v>
       </c>
       <c r="J160" s="5">
-        <v>3608.016</v>
+        <v>3608.0160000000001</v>
       </c>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
@@ -6877,28 +6936,28 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
-      <c r="B161" t="s" s="3">
+      <c r="B161" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C161" s="4"/>
-      <c r="D161" t="s" s="3">
+      <c r="D161" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" s="3" t="s">
         <v>322</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="5">
-        <v>2185.164</v>
+        <v>2185.1640000000002</v>
       </c>
       <c r="I161" s="5">
-        <v>2572.827</v>
+        <v>2572.8270000000002</v>
       </c>
       <c r="J161" s="5">
-        <v>2757.985</v>
+        <v>2757.9850000000001</v>
       </c>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
@@ -6908,7 +6967,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
